--- a/Apollo247/src/test/resources/Data/users.xlsx
+++ b/Apollo247/src/test/resources/Data/users.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djampani\Eclipse-Workspace2\Apollo247\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djampani\git\repository2\Apollo247\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{416CF4DB-EE5C-431A-9B73-52CDC9E40706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5E7739-698A-4D6A-87D8-99E1B4192597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" xr2:uid="{151AE6AD-9EFF-463A-A1A8-31730D862A98}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LabTestSheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Lipid Profile</t>
+    <t>Liver Function Test</t>
   </si>
 </sst>
 </file>
@@ -393,12 +393,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
